--- a/biology/Histoire de la zoologie et de la botanique/Leslie_Andrew_Garay/Leslie_Andrew_Garay.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Leslie_Andrew_Garay/Leslie_Andrew_Garay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leslie Andrew Garay, né László András Garay en 1924 en Hongrie, est un botaniste américain d'origine hongroise qui a été directeur et conservateur de l'Oakes Ames Orchid Herbarium de l'université Harvard pendant cinq décennies et qui s'est spécialisé dans l'étude des orchidées. Il a révisé de nombreux genres d'orchidées, a reclassifié nombre d'espèces en différents genres et a défini de nouveaux genres, tels que :
 Chaubardiella, défini en 1969 comprenant quatre espèces issues précédemment des genres Stenia, Kefersteinia, Chondrorhyncha, Chaubardia.
@@ -521,15 +533,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Articles
-New &amp; Noteworthy Records for Argentine Orchidology, 1954, Communication de l'Instituto Nacional de Investigación de las Ciencias Naturales (Argentine), Ciencias botánicas 1: 6
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>New &amp; Noteworthy Records for Argentine Orchidology, 1954, Communication de l'Instituto Nacional de Investigación de las Ciencias Naturales (Argentine), Ciencias botánicas 1: 6
 The first Handbook of Orchid Nomenclature
 Synopsis of the genus Oncidium, 1974, éd. Herbarium Bradeanum
 The genus oeceoclades Lindl., 1976, Harvard University, Botanical Museum, Bot. Museum leaflets
 A generic revison of the Spiranthinae, 1982, éd. Bot. Museum leaflets, Harvard University
-Classification of orchid species, 1999, in: Harvard Papers in Botany. 4(1): 311, fig. 7B. Cambridge, Massachusetts
-Livres
-Venezuelan Orchids, Galfrid C.K. Dunsterville &amp; Leslie A. Garay, éd. Andre Deutsch, Londres &amp; Amsterdam, 1959-76, 334 pp.  (ISBN 0233964118)
+Classification of orchid species, 1999, in: Harvard Papers in Botany. 4(1): 311, fig. 7B. Cambridge, Massachusetts</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Leslie_Andrew_Garay</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leslie_Andrew_Garay</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Quelques publications</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Venezuelan Orchids, Galfrid C.K. Dunsterville &amp; Leslie A. Garay, éd. Andre Deutsch, Londres &amp; Amsterdam, 1959-76, 334 pp.  (ISBN 0233964118)
 Natural &amp; artificial hybrid generic names of orchids, 1887-1965, 1966, Botanical Museum leaflets, Harvard University, 212 pp.
 Flora of the Lesser Antilles: Orchidaceae , 1974, Garay, Los Angeles, HR Sweet, éd. Amer Orchid Soc.  (ISBN 99941-1-617-7)
 Orchids of Southern Ryukyu Islands, 1974, Leslie A. Garay &amp; Herman R. Sweet, éd. Botanical Museum, Harvard University, 180 pp.
@@ -540,53 +591,55 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Leslie_Andrew_Garay</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Leslie_Andrew_Garay</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Genres
-(Orchidaceae)  Garayanthus Szlach.[1]
-(Orchidaceae) Garaya Szlach.[2]
+(Orchidaceae)  Garayanthus Szlach.
+(Orchidaceae) Garaya Szlach.
 Espèces
-(Orchidaceae) Apatostelis garayi Dunst.[3]
-(Orchidaceae) Ascocentrum garayi Christenson[4]
-(Orchidaceae) Brassia garayana M.W.Chase[5]
-(Orchidaceae) Cranichis garayana Dodson &amp; R.Vásquez[6]
-(Orchidaceae) Dendrobium garayanum A.D.Hawkes &amp; A.H.Heller[7]
-(Orchidaceae) Diaphananthe garayana Szlach. &amp; Olszewski[8]
-(Orchidaceae) Epidendrum garayi Lojtnant[9]
-(Orchidaceae) Gongora garayana R.Rice[10]
-(Orchidaceae) Habenaria garayana Szlach. &amp; Olszewski[11]
-(Orchidaceae) Lepanthes garayi T.Hashim.[12]
-(Orchidaceae) Maxillaria garayi D.E.Benn. &amp; Christenson[13]
-(Orchidaceae) Pabstiella garayi (Pabst) Luer[14]
-(Orchidaceae) Schiedeella garayana R.González[15]
-(Orchidaceae) Schlimia garayana H.R.Sweet[16]
-(Orchidaceae) Stelis garayi (Dunst.) Carnevali &amp; I.Ramírez[17]
-(Orchidaceae) Stigmatosema garayanum Szlach.[18]
-(Orchidaceae) Sutrina garayi Senghas[19]</t>
+(Orchidaceae) Apatostelis garayi Dunst.
+(Orchidaceae) Ascocentrum garayi Christenson
+(Orchidaceae) Brassia garayana M.W.Chase
+(Orchidaceae) Cranichis garayana Dodson &amp; R.Vásquez
+(Orchidaceae) Dendrobium garayanum A.D.Hawkes &amp; A.H.Heller
+(Orchidaceae) Diaphananthe garayana Szlach. &amp; Olszewski
+(Orchidaceae) Epidendrum garayi Lojtnant
+(Orchidaceae) Gongora garayana R.Rice
+(Orchidaceae) Habenaria garayana Szlach. &amp; Olszewski
+(Orchidaceae) Lepanthes garayi T.Hashim.
+(Orchidaceae) Maxillaria garayi D.E.Benn. &amp; Christenson
+(Orchidaceae) Pabstiella garayi (Pabst) Luer
+(Orchidaceae) Schiedeella garayana R.González
+(Orchidaceae) Schlimia garayana H.R.Sweet
+(Orchidaceae) Stelis garayi (Dunst.) Carnevali &amp; I.Ramírez
+(Orchidaceae) Stigmatosema garayanum Szlach.
+(Orchidaceae) Sutrina garayi Senghas</t>
         </is>
       </c>
     </row>
